--- a/cache/eb03d19a-b88d-4de4-8a64-ca0ac66f426b/Students_Class_Subject_Marks.xlsx
+++ b/cache/eb03d19a-b88d-4de4-8a64-ca0ac66f426b/Students_Class_Subject_Marks.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t xml:space="preserve">Student</t>
   </si>
@@ -134,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -187,15 +187,6 @@
       <right style="thin">
         <color rgb="FFD9D9E3"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FFD9D9E3"/>
@@ -259,7 +250,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -292,11 +283,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -305,10 +296,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -389,15 +376,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:G13"/>
+  <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8:G13"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -415,7 +402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
         <v>5</v>
@@ -433,7 +420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
         <v>10</v>
@@ -451,7 +438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -470,111 +457,73 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="10" t="s">
-        <v>1</v>
+      <c r="B10" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>36</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>83</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="7" t="n">
         <v>30</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/cache/eb03d19a-b88d-4de4-8a64-ca0ac66f426b/Students_Class_Subject_Marks.xlsx
+++ b/cache/eb03d19a-b88d-4de4-8a64-ca0ac66f426b/Students_Class_Subject_Marks.xlsx
@@ -20,51 +20,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t xml:space="preserve">Student</t>
   </si>
   <si>
+    <t xml:space="preserve">Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marks</t>
+  </si>
+  <si>
     <t xml:space="preserve">Clint</t>
   </si>
   <si>
+    <t xml:space="preserve">Primary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
     <t xml:space="preserve">Olivia</t>
   </si>
   <si>
+    <t xml:space="preserve">Secondary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urdu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parah</t>
   </si>
   <si>
+    <t xml:space="preserve">H. School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math</t>
+  </si>
+  <si>
     <t xml:space="preserve">Elijah</t>
   </si>
   <si>
-    <t xml:space="preserve">Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secondary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H. School</t>
-  </si>
-  <si>
     <t xml:space="preserve">College</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urdu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Math</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marks</t>
   </si>
 </sst>
 </file>
@@ -74,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -96,13 +96,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -134,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -143,22 +136,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
+      <left style="thin">
+        <color rgb="FFD9D9E3"/>
+      </left>
       <right style="thin">
         <color rgb="FFD9D9E3"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD9D9E3"/>
-      </top>
       <bottom style="thin">
         <color rgb="FFD9D9E3"/>
       </bottom>
@@ -166,37 +150,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFD9D9E3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFD9D9E3"/>
-      </left>
       <right style="thin">
         <color rgb="FFD9D9E3"/>
       </right>
@@ -250,52 +203,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -376,154 +309,127 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8:F13"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>9</v>
+      <c r="D3" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>83</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7" t="n">
-        <v>36</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>83</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="F5" s="7" t="n">
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="7" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="7" t="n">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
